--- a/question_difficulty_level_result/12.xlsx
+++ b/question_difficulty_level_result/12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -514,7 +560,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L3":12,"L2":2,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.125,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -544,7 +611,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -574,7 +662,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":2,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.25,"L3":0.125}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -604,7 +713,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -634,7 +764,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L3":4,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L3":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -664,7 +815,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -694,7 +866,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -724,7 +917,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -754,7 +968,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -784,7 +1019,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L3":0.375}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -814,7 +1070,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -844,7 +1121,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L3":0.375}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -874,7 +1172,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -904,7 +1223,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -934,7 +1274,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":4}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.5}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -964,7 +1325,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -994,7 +1376,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1024,7 +1427,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1054,7 +1478,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1084,7 +1529,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1114,7 +1580,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1144,7 +1631,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1174,7 +1682,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1204,7 +1733,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1234,7 +1784,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L3":0.375}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1264,7 +1835,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>8</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L3":4,"L2":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L3":0.5,"L2":0.375,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1294,7 +1886,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1324,7 +1937,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1354,7 +1988,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1384,7 +2039,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1414,7 +2090,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1444,7 +2141,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L3":0.375}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1474,7 +2192,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1504,7 +2243,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1534,7 +2294,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1564,7 +2345,28 @@
           <t>12</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
